--- a/data/trans_orig/P14C30-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45CF7A8-29D9-4A58-9113-0042CA062D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{133F3135-05FB-4DD2-820A-FEC7A7E2CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D227C1B4-46C4-493E-9F4E-5E5233AA7969}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CDAF0A0-9431-42F1-AEC4-5A07E476D692}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>32,48%</t>
   </si>
   <si>
-    <t>79,18%</t>
+    <t>78,98%</t>
   </si>
   <si>
     <t>38,26%</t>
@@ -137,7 +137,7 @@
     <t>29,26%</t>
   </si>
   <si>
-    <t>87,48%</t>
+    <t>73,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -146,7 +146,7 @@
     <t>82,84%</t>
   </si>
   <si>
-    <t>38,74%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -155,19 +155,19 @@
     <t>87,25%</t>
   </si>
   <si>
-    <t>43,92%</t>
+    <t>42,59%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>61,26%</t>
+    <t>68,56%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>56,08%</t>
+    <t>57,41%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -182,25 +182,25 @@
     <t>59,82%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>12,64%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>21,89%</t>
+    <t>22,19%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>86,98%</t>
+    <t>87,36%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>78,11%</t>
+    <t>77,81%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -224,10 +224,10 @@
     <t>54,51%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>52,39%</t>
@@ -242,10 +242,10 @@
     <t>25,66%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>25,63%</t>
@@ -263,79 +263,79 @@
     <t>19,84%</t>
   </si>
   <si>
-    <t>58,86%</t>
+    <t>54,33%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60323B27-FDCB-4C1E-9E13-2376BB2C42A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8B4DE-A003-4C3B-9B93-DB043800A042}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C30-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C30-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133F3135-05FB-4DD2-820A-FEC7A7E2CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F66C1A8-92A7-4BA0-9B1F-00338D2A4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CDAF0A0-9431-42F1-AEC4-5A07E476D692}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15FC7574-E0CC-42A5-B545-599AA42F4A43}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
   <si>
-    <t>Población según el tiempo de diagnóstico del cirrosis en 2015 (Tasa respuesta: 0,5%)</t>
+    <t>Población según el tiempo de diagnóstico del cirrosis en 2016 (Tasa respuesta: 0,5%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -125,7 +125,7 @@
     <t>32,48%</t>
   </si>
   <si>
-    <t>78,98%</t>
+    <t>79,07%</t>
   </si>
   <si>
     <t>38,26%</t>
@@ -146,7 +146,7 @@
     <t>82,84%</t>
   </si>
   <si>
-    <t>31,44%</t>
+    <t>38,74%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -155,19 +155,19 @@
     <t>87,25%</t>
   </si>
   <si>
-    <t>42,59%</t>
+    <t>43,06%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>61,26%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>57,41%</t>
+    <t>56,94%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -182,25 +182,25 @@
     <t>59,82%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>13,06%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>22,19%</t>
+    <t>29,55%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>86,94%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>77,81%</t>
+    <t>70,45%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -218,16 +218,16 @@
     <t>69,46%</t>
   </si>
   <si>
-    <t>25,16%</t>
+    <t>27,6%</t>
   </si>
   <si>
     <t>54,51%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>52,39%</t>
@@ -236,16 +236,16 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>54,31%</t>
+    <t>54,48%</t>
   </si>
   <si>
     <t>25,66%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>25,63%</t>
@@ -257,85 +257,85 @@
     <t>17,17%</t>
   </si>
   <si>
-    <t>69,18%</t>
+    <t>72,85%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>54,33%</t>
+    <t>57,02%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>37,13%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>40,98%</t>
+    <t>40,02%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D8B4DE-A003-4C3B-9B93-DB043800A042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE956FC-1DB1-450C-9D4B-AED0BE934EF1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
